--- a/data/Map007.xlsx
+++ b/data/Map007.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEBA4CF-04A9-457F-82F0-2B1D27683FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>EV001</t>
   </si>
@@ -394,22 +399,327 @@
   </si>
   <si>
     <t>情報の整理（日記の確認）</t>
+  </si>
+  <si>
+    <t>Dear \n[1],
+If you want the hostages back, come to the Ecology Labs.
+The door there is locked, however.</t>
+  </si>
+  <si>
+    <t>There are 4 keys in total.
+Each one is held by a succubus in a different test chamber.
+Show me the true power of a hunter.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Succubi...
+I normally don't enjoy pointless fighting, but we
+have no other choice. \n[1], I'll lend you a hand.</t>
+  </si>
+  <si>
+    <t>\C[1]※Lily will lend her power during future succubus battles.
+\C[0]Lily will use a random support spell every 4 turns.
+She goes last in a turn.</t>
+  </si>
+  <si>
+    <t>Also, if \n[1] is defeated by orcs, Lily will use her power to revive them
+at the cost of one level of hers. The lower her level, the less 
+support magic she can use.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;We need 4 keys...
+We really need to hurry!</t>
+  </si>
+  <si>
+    <t>Attention all personnel.
+We are luring Lily and the hunter to the facility.
+We are releasing the succubi. Evacuate immediately.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Dignis...?
+Who's that?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Ahh...
+(Could it have been that man...)</t>
+  </si>
+  <si>
+    <t>A roulette table is installed here...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;A lot of games lying around.
+They were having all sorts of fun underground.
+Bunch of moles...</t>
+  </si>
+  <si>
+    <t>Nothing else useful.</t>
+  </si>
+  <si>
+    <t>Strange drugs line the shelves...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;What are all these drugs for...
+Sniff sniff...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Eccch!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Sniffle...! Uwaah...
+Mucus...
+Pouring from my nose...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Hey, don't touch that stuff.
+Hurry up.
+Sniffle...</t>
+  </si>
+  <si>
+    <t>How to move forward...</t>
+  </si>
+  <si>
+    <t>See answer</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>In each of the 4 rooms, solve the puzzle, defeat the succubus, \nand collect the key.</t>
+  </si>
+  <si>
+    <t>Used the 4 keys!</t>
+  </si>
+  <si>
+    <t>The door is unlocked!</t>
+  </si>
+  <si>
+    <t>There are 4 keyholes...
+You don't have enough keys yet.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;From here on...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;\n[1]. Do you have anything left to do here?
+Make sure you're good and ready before we move on.</t>
+  </si>
+  <si>
+    <t>There's no need to go back.
+Let's move on.</t>
+  </si>
+  <si>
+    <t>A half-empty coffee cup...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Location-wise, this would be the basement of the mansion.
+How didn't I know about this...</t>
+  </si>
+  <si>
+    <t>Chocolat's Lab Reports
+How to use the machine</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Two keys left to go...!
+Need to hurry...</t>
+  </si>
+  <si>
+    <t>You've got all the keys now...!
+Time to move on!</t>
+  </si>
+  <si>
+    <t>A bizarre machine...
+Best not to touch it.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;A machine...
+Some human must know how to use it.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I should collect my thoughts...)</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;Yeeek!!</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;Awawawawawa...!!
+P-please don't kill me...!!</t>
+  </si>
+  <si>
+    <t>Calm her down</t>
+  </si>
+  <si>
+    <t>Startle her</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Boo-!!</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;KYAAAAHHH!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;I-I am... Or... I was...
+I was a maid working in the mansion.
+Please excuse me...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Who are you?
+Are you with these people?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;What are you doing...
+How could you be so mean.
+Who are you?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...
+I'm not especially hungry today.
+Tell me everything you know.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;And what about everyone else?
+Why are you here alone?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...
+I'll believe you for now. If what you said is true,
+then I feel pity for you.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Huh?
+No, give us something for free.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;That should be plenty.
+How long are you planning to stay here?
+Hurry up and get out.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I'm telling you to get lost!
+Don't get the wrong idea!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You've got quite a fine selection.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You've got a nice, strong voice.</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;Y-you must be... Ms. Lily...
+A-ahhh...
+I-I had... No idea...</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;I worked under Ms. Velvet...
+I didn't know the truth...
+I had no choice... I couldn't go anywhere...</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;O-of course...
+Well...
+Let me explain as best I can... What's going on.</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;Th-they researched monsters in here...
+The mansion was a front to disguise it.</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;They would imprison adventurers who visited...
+They would perform cruel experiments on them...
+Uuuuhh...</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;They collected rare and unusual monsters and animals
+from all over the world in this mansion...
+I thought it was just the master's hobby...</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;I believe that's why they brought you here, Ms. Lily.
+Of course, you took over the mansion, and the master...</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;No, I don't blame you for anything.
+I was completely clueless while I was working there.
+If not for you, I would still be...</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;Everyone was evacuated when we released the succubi.
+The only ones here still are Dr. Chocolat, and Ms. Velvet,
+the head maid.</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;I was... Searching for my glasses.
+I missed my chance to escape...</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;Hah...
+I really hate this building, and these people.
+If you can, please rescue me.</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;Please let me know if you need anything.
+I need to think about what I'll do once I get out of here,
+so if you wouldn't mind paying a little...</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;Yeeeeek...!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;Wh-what is it?
+If you need anything... Anything at all!</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;Ah, somehow...
+I thought Ms. Lily would be scarier than this.
+Eheehee...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;Yeeek...!!
+I'll leave in a little while...</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;It's all stuff from the research center...
+Er, no, I suppose...
+There's some stuff from my... Personal collection...///</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;YEEEEEK!!!
+Help meeeeee!!</t>
+  </si>
+  <si>
+    <t>Do not approach the subjects until they are confirmed captured
+or dead. Now is the time to relieve Dignis' regrets.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I thought I could hear strange noises sometimes.
+I felt like I was being watched sometimes too.
+I just assumed it was the orcs.</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;I'm so sorry, I'm so sorry...
+If we tried to leave, they... They threatened our
+families... I was stuck... Sniffle.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -417,28 +727,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -728,530 +1054,747 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="74.5703125" customWidth="1"/>
+    <col min="2" max="2" width="88.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="B7" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="B9" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B10" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="B11" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="B14" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B19" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B22" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="B39" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="B44" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="B45" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+      <c r="B53" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+      <c r="B58" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+      <c r="B63" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+      <c r="B64" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+      <c r="B65" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+      <c r="B66" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+      <c r="B67" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+      <c r="B68" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+      <c r="B69" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+      <c r="B70" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+      <c r="B71" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+      <c r="B72" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+      <c r="B73" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+      <c r="B75" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+      <c r="B76" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+      <c r="B77" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+      <c r="B78" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+      <c r="B79" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+      <c r="B80" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+      <c r="B81" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+      <c r="B82" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+      <c r="B84" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+      <c r="B85" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+      <c r="B86" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+      <c r="B87" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+      <c r="B88" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+      <c r="B90" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+      <c r="B91" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+      <c r="B92" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+    <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+      <c r="B95" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>